--- a/Verkefnaskipulag.xlsx
+++ b/Verkefnaskipulag.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1604002850\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1604002850\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11850"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Meðlimir hópsins</t>
   </si>
@@ -36,6 +36,9 @@
   </si>
   <si>
     <t>Skipulag taflna sett inn á GitHub, og verkefnaskipulag búið til.</t>
+  </si>
+  <si>
+    <t>Byrja á skriptu</t>
   </si>
 </sst>
 </file>
@@ -102,7 +105,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -143,24 +146,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color theme="5" tint="0.39997558519241921"/>
-      </left>
-      <right style="thin">
-        <color theme="5" tint="0.39997558519241921"/>
-      </right>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -174,15 +164,16 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -474,7 +465,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -493,32 +484,29 @@
         <v>42849</v>
       </c>
       <c r="C1" s="2">
-        <v>42850</v>
-      </c>
-      <c r="D1" s="2">
-        <v>42851</v>
+        <v>42858</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="5"/>
+      <c r="C2" s="9" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="3" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="5"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D7" s="7"/>
+      <c r="D7" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
